--- a/5 semester/Driver_Schedule_Shifts.xlsx
+++ b/5 semester/Driver_Schedule_Shifts.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,54 +540,54 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:00 to 14:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:00 to 14:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:00 to 14:00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:00 to 14:00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:00 to 14:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:00 to 14:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:00 to 14:00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:00 to 14:00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:00 to 14:00</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:00 to 14:00</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -601,54 +601,54 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:15 to 14:15</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:15 to 14:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:15 to 14:15</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:15 to 14:15</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:15 to 14:15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:15 to 14:15</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:15 to 14:15</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:15 to 14:15</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:15 to 14:15</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 14:00</t>
+          <t>06:15 to 14:15</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -662,54 +662,54 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>09:45 to 17:45</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>09:45 to 17:45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>09:45 to 17:45</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>09:45 to 17:45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>09:45 to 17:45</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>09:45 to 17:45</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>09:45 to 17:45</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>09:45 to 17:45</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>09:45 to 17:45</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>09:45 to 17:45</t>
         </is>
       </c>
       <c r="N5" t="inlineStr"/>
@@ -723,54 +723,54 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>10:00 to 18:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>10:00 to 18:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>10:00 to 18:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>10:00 to 18:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>10:00 to 18:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>10:00 to 18:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>10:00 to 18:00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>10:00 to 18:00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>10:00 to 18:00</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Day Shift: 10:00 to 18:00</t>
+          <t>10:00 to 18:00</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -784,35 +784,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 18:00</t>
+          <t>06:30 to 18:30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 18:00</t>
+          <t>06:30 to 18:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 18:00</t>
+          <t>06:00 to 18:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 18:00</t>
+          <t>06:30 to 18:30</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Day Shift: 6:00 to 18:00</t>
+          <t>06:00 to 18:00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -823,40 +823,40 @@
           <t>12hr_Day_Driver_2</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>06:30 to 18:30</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>06:30 to 18:30</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>06:30 to 18:30</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>06:30 to 18:30</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>06:00 to 18:00</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -865,413 +865,175 @@
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>06:30 to 18:30</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>06:00 to 18:00</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>06:30 to 18:30</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>06:30 to 18:30</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12hr_Day_Driver_4</t>
+          <t>Night Shift</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12hr_Day_Driver_5</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>12hr_Driver_1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>18:00 to 6:00</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>18:00 to 6:00</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>18:00 to 6:00</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>18:00 to 6:00</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>18:00 to 6:00</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12hr_Day_Driver_6</t>
+          <t>12hr_Driver_2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>18:00 to 6:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>18:00 to 6:00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>18:00 to 6:00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Day Shift: 6:00 to 18:00</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>18:00 to 6:00</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>18:00 to 6:00</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Night Shift</t>
+          <t>12hr_Driver_3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18:00 to 6:00</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>18:00 to 6:00</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>18:00 to 6:00</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>18:00 to 6:00</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>12hr_Driver_1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>12hr_Driver_2</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>12hr_Driver_3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>12hr_Driver_4</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>12hr_Driver_5</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>12hr_Driver_6</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Night Shift: 18:00 to 6:00</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1284,7 +1046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1398,14 +1160,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>13:00 to 14:00</t>
+          <t>13:30 to 14:30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13:00 to 14:00</t>
+          <t>13:30 to 14:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -1419,7 +1181,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>13:00 to 14:00</t>
+          <t>13:30 to 14:30</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -1437,40 +1199,40 @@
           <t>12hr_Day_Driver_2</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>14:00 to 15:00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13:30 to 14:30</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>14:00 to 15:00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>13:30 to 14:30</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>14:00 to 15:00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>13:30 to 14:30</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>14:00 to 15:00</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>13:30 to 14:30</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>14:00 to 15:00</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>13:00 to 14:00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1479,113 +1241,113 @@
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13:30 to 14:30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>13:00 to 14:00</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>13:00 to 14:00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>13:00 to 14:00</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>13:30 to 14:30</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>13:00 to 14:00</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>13:30 to 14:30</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>13:00 to 14:00</t>
-        </is>
-      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12hr_Day_Driver_4</t>
+          <t>15 min breaks</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>14:00 to 15:00</t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>14:00 to 15:00</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>14:00 to 15:00</t>
-        </is>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>14:00 to 15:00</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>14:00 to 15:00</t>
-        </is>
-      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12hr_Day_Driver_5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+          <t>8hr_Driver_1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>07:45 to 08:00, 09:45 to 10:00, 11:45 to 12:00, 13:45 to 14:00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07:45 to 08:00, 09:45 to 10:00, 11:45 to 12:00, 13:45 to 14:00</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13:00 to 14:00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>13:00 to 14:00</t>
-        </is>
-      </c>
+          <t>07:45 to 08:00, 09:45 to 10:00, 11:45 to 12:00, 13:45 to 14:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>07:45 to 08:00, 09:45 to 10:00, 11:45 to 12:00, 13:45 to 14:00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>07:45 to 08:00, 09:45 to 10:00, 11:45 to 12:00, 13:45 to 14:00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>07:45 to 08:00, 09:45 to 10:00, 11:45 to 12:00, 13:45 to 14:00</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>13:00 to 14:00</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+          <t>07:45 to 08:00, 09:45 to 10:00, 11:45 to 12:00, 13:45 to 14:00</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>07:45 to 08:00, 09:45 to 10:00, 11:45 to 12:00, 13:45 to 14:00</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>07:45 to 08:00, 09:45 to 10:00, 11:45 to 12:00, 13:45 to 14:00</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>13:00 to 14:00</t>
+          <t>07:45 to 08:00, 09:45 to 10:00, 11:45 to 12:00, 13:45 to 14:00</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -1594,35 +1356,59 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12hr_Day_Driver_6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
+          <t>8hr_Driver_2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>08:00 to 08:15, 10:00 to 10:15, 12:00 to 12:15, 14:00 to 14:15</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08:00 to 08:15, 10:00 to 10:15, 12:00 to 12:15, 14:00 to 14:15</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14:00 to 15:00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>14:00 to 15:00</t>
-        </is>
-      </c>
+          <t>08:00 to 08:15, 10:00 to 10:15, 12:00 to 12:15, 14:00 to 14:15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>08:00 to 08:15, 10:00 to 10:15, 12:00 to 12:15, 14:00 to 14:15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>08:00 to 08:15, 10:00 to 10:15, 12:00 to 12:15, 14:00 to 14:15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>08:00 to 08:15, 10:00 to 10:15, 12:00 to 12:15, 14:00 to 14:15</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>14:00 to 15:00</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+          <t>08:00 to 08:15, 10:00 to 10:15, 12:00 to 12:15, 14:00 to 14:15</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>08:00 to 08:15, 10:00 to 10:15, 12:00 to 12:15, 14:00 to 14:15</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>08:00 to 08:15, 10:00 to 10:15, 12:00 to 12:15, 14:00 to 14:15</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>14:00 to 15:00</t>
+          <t>08:00 to 08:15, 10:00 to 10:15, 12:00 to 12:15, 14:00 to 14:15</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1631,80 +1417,120 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>15 min breaks</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+          <t>8hr_Driver_3</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11:30 to 11:45, 13:30 to 13:45, 15:30 to 15:45, 17:30 to 17:45</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>11:30 to 11:45, 13:30 to 13:45, 15:30 to 15:45, 17:30 to 17:45</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11:30 to 11:45, 13:30 to 13:45, 15:30 to 15:45, 17:30 to 17:45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>11:30 to 11:45, 13:30 to 13:45, 15:30 to 15:45, 17:30 to 17:45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>11:30 to 11:45, 13:30 to 13:45, 15:30 to 15:45, 17:30 to 17:45</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>11:30 to 11:45, 13:30 to 13:45, 15:30 to 15:45, 17:30 to 17:45</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>11:30 to 11:45, 13:30 to 13:45, 15:30 to 15:45, 17:30 to 17:45</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>11:30 to 11:45, 13:30 to 13:45, 15:30 to 15:45, 17:30 to 17:45</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>11:30 to 11:45, 13:30 to 13:45, 15:30 to 15:45, 17:30 to 17:45</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>11:30 to 11:45, 13:30 to 13:45, 15:30 to 15:45, 17:30 to 17:45</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8hr_Driver_1</t>
+          <t>8hr_Driver_4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12:00 to 12:15</t>
+          <t>12:15 to 12:30, 14:15 to 14:30, 15:45 to 16:00, 17:45 to 18:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:00 to 12:15</t>
+          <t>12:15 to 12:30, 14:15 to 14:30, 15:45 to 16:00, 17:45 to 18:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12:00 to 12:15</t>
+          <t>12:15 to 12:30, 14:15 to 14:30, 15:45 to 16:00, 17:45 to 18:00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12:00 to 12:15</t>
+          <t>12:15 to 12:30, 14:15 to 14:30, 15:45 to 16:00, 17:45 to 18:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>12:00 to 12:15</t>
+          <t>12:15 to 12:30, 14:15 to 14:30, 15:45 to 16:00, 17:45 to 18:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>12:00 to 12:15</t>
+          <t>12:15 to 12:30, 14:15 to 14:30, 15:45 to 16:00, 17:45 to 18:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>12:00 to 12:15</t>
+          <t>12:15 to 12:30, 14:15 to 14:30, 15:45 to 16:00, 17:45 to 18:00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12:00 to 12:15</t>
+          <t>12:15 to 12:30, 14:15 to 14:30, 15:45 to 16:00, 17:45 to 18:00</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>12:00 to 12:15</t>
+          <t>12:15 to 12:30, 14:15 to 14:30, 15:45 to 16:00, 17:45 to 18:00</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>12:00 to 12:15</t>
+          <t>12:15 to 12:30, 14:15 to 14:30, 15:45 to 16:00, 17:45 to 18:00</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1713,423 +1539,121 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8hr_Driver_2</t>
+          <t>12hr_Driver_1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12:15 to 12:30</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>12:15 to 12:30</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12:15 to 12:30</t>
-        </is>
-      </c>
+          <t>19:45 to 20:00, 21:45 to 22:00, 23:45 to 00:00, 01:45 to 02:00, 03:45 to 04:00, 05:45 to 06:00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12:15 to 12:30</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>12:15 to 12:30</t>
-        </is>
-      </c>
+          <t>19:45 to 20:00, 21:45 to 22:00, 23:45 to 00:00, 01:45 to 02:00, 03:45 to 04:00, 05:45 to 06:00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>12:15 to 12:30</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>12:15 to 12:30</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>19:45 to 20:00, 21:45 to 22:00, 23:45 to 00:00, 01:45 to 02:00, 03:45 to 04:00, 05:45 to 06:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>12:15 to 12:30</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>12:15 to 12:30</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>12:15 to 12:30</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
+          <t>19:45 to 20:00, 21:45 to 22:00, 23:45 to 00:00, 01:45 to 02:00, 03:45 to 04:00, 05:45 to 06:00</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>19:45 to 20:00, 21:45 to 22:00, 23:45 to 00:00, 01:45 to 02:00, 03:45 to 04:00, 05:45 to 06:00</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8hr_Driver_3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>16:00 to 16:15</t>
-        </is>
-      </c>
+          <t>12hr_Driver_2</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00 to 16:15</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16:00 to 16:15</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>16:00 to 16:15</t>
-        </is>
-      </c>
+          <t>19:45 to 20:00, 21:45 to 22:00, 23:45 to 00:00, 01:45 to 02:00, 03:45 to 04:00, 05:45 to 06:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>16:00 to 16:15</t>
+          <t>19:45 to 20:00, 21:45 to 22:00, 23:45 to 00:00, 01:45 to 02:00, 03:45 to 04:00, 05:45 to 06:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>16:00 to 16:15</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>16:00 to 16:15</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>16:00 to 16:15</t>
-        </is>
-      </c>
+          <t>19:45 to 20:00, 21:45 to 22:00, 23:45 to 00:00, 01:45 to 02:00, 03:45 to 04:00, 05:45 to 06:00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>16:00 to 16:15</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>16:00 to 16:15</t>
-        </is>
-      </c>
+          <t>19:45 to 20:00, 21:45 to 22:00, 23:45 to 00:00, 01:45 to 02:00, 03:45 to 04:00, 05:45 to 06:00</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>19:45 to 20:00, 21:45 to 22:00, 23:45 to 00:00, 01:45 to 02:00, 03:45 to 04:00, 05:45 to 06:00</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8hr_Driver_4</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>16:15 to 16:30</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16:15 to 16:30</t>
-        </is>
-      </c>
+          <t>12hr_Driver_3</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16:15 to 16:30</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>16:15 to 16:30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>16:15 to 16:30</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>19:45 to 20:00, 21:45 to 22:00, 23:45 to 00:00, 01:45 to 02:00, 03:45 to 04:00, 05:45 to 06:00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>19:45 to 20:00, 21:45 to 22:00, 23:45 to 00:00, 01:45 to 02:00, 03:45 to 04:00, 05:45 to 06:00</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>16:15 to 16:30</t>
-        </is>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>16:15 to 16:30</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>16:15 to 16:30</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>16:15 to 16:30</t>
-        </is>
-      </c>
+          <t>19:45 to 20:00, 21:45 to 22:00, 23:45 to 00:00, 01:45 to 02:00, 03:45 to 04:00, 05:45 to 06:00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>16:15 to 16:30</t>
+          <t>19:45 to 20:00, 21:45 to 22:00, 23:45 to 00:00, 01:45 to 02:00, 03:45 to 04:00, 05:45 to 06:00</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>12hr_Driver_1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>04:00 to 04:15</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>04:00 to 04:15</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>04:00 to 04:15</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>04:00 to 04:15</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>04:00 to 04:15</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>12hr_Driver_2</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>04:15 to 04:30</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>04:15 to 04:30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>04:15 to 04:30</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>04:15 to 04:30</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>04:15 to 04:30</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>12hr_Driver_3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>04:00 to 04:15</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>04:00 to 04:15</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>04:00 to 04:15</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>04:00 to 04:15</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>04:00 to 04:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>12hr_Driver_4</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>04:15 to 04:30</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>04:15 to 04:30</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>04:15 to 04:30</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>04:15 to 04:30</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>04:15 to 04:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>12hr_Driver_5</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>04:00 to 04:15</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>04:00 to 04:15</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>04:00 to 04:15</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>04:00 to 04:15</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>12hr_Driver_6</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>04:15 to 04:30</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>04:15 to 04:30</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>04:15 to 04:30</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>04:15 to 04:30</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
